--- a/Blutbilder.xlsx
+++ b/Blutbilder.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klaus.frick\Privat\Sophie\Krankenhaus\Werte\Daten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klaus.frick\Privat\Sophie\Krankenhaus\Werte\App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A187C945-D0A1-435A-ABA4-29ECB5CE614C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D20573-D903-470B-AB25-85A9507F8B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -964,6 +964,35 @@
         <v>23</v>
       </c>
     </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>45053</v>
+      </c>
+      <c r="B21">
+        <v>0.83</v>
+      </c>
+      <c r="C21">
+        <v>7.4</v>
+      </c>
+      <c r="D21">
+        <v>5.8</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+      <c r="F21">
+        <v>2.78</v>
+      </c>
+      <c r="G21">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H21">
+        <v>0.25</v>
+      </c>
+      <c r="I21">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I18">
     <sortCondition ref="A1:A18"/>
